--- a/Data/Prices_and_stats_df.xlsx
+++ b/Data/Prices_and_stats_df.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Max Drawdown (%)</t>
+  </si>
+  <si>
+    <t>Calmar Ratio</t>
   </si>
   <si>
     <t>YMAX Strategy</t>
@@ -484,7 +487,7 @@
   <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:L229"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9212,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="A1:Q229"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20697,8 +20700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:Q229"/>
+    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32179,10 +32182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32193,9 +32196,10 @@
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -32211,10 +32215,13 @@
       <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>42.63</v>
@@ -32230,6 +32237,9 @@
       </c>
       <c r="F2">
         <v>-3.93</v>
+      </c>
+      <c r="G2">
+        <v>12.12</v>
       </c>
     </row>
   </sheetData>
@@ -32239,10 +32249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32253,9 +32263,10 @@
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -32271,10 +32282,13 @@
       <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>54.79</v>
@@ -32290,6 +32304,9 @@
       </c>
       <c r="F2">
         <v>-6.58</v>
+      </c>
+      <c r="G2">
+        <v>9.34</v>
       </c>
     </row>
   </sheetData>
